--- a/Datasets/Predictions.xlsx
+++ b/Datasets/Predictions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-19-2024" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,22 +13,32 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-23-2024" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-24-2024" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-25-2024" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-26-2024" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-27-2024" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-28-2024" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-29-2024" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0009999999999999445"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -72,12 +82,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -165,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -183,6 +208,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -916,6 +944,952 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.547517477703314</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.428045749664307</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.542599656047323</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.704452753067017</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1475346496806464</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6290268301963806</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.695095057326953</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.005419492721558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4836790922487668</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.002308783587068319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.256514165598384</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6656510233879089</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.886527903179886</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.818512916564941</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.632845579626932</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.209126472473145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6688237452186248</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.1358642578125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.049178216559968</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.914090871810913</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.41086223468176</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.099342823028564</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.035718998723315</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8425951600074768</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.53436035667767</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.250433444976807</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.198330675154928</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.006680965423584</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.02135349045243551</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9264268279075623</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.09105386168518</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.376412630081177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7764275275003487</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.009001135826111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.431118299358459</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.303689002990723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.249611646500263</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.770082592964172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5747895261200542</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.049990892410278</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.843406414006734</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.715561151504517</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.116474305745018</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.068375587463379</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7507445095424088</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6613050103187561</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.416939400300456</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.379960536956787</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6.067177206265816</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.243505954742432</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.507344535026708</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.322910666465759</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7327554267466669</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.041263937950134</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-11.19024163058532</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.766969203948975</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.988287976109706</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.695779085159302</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.131098980884162</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.420891284942627</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.690513676436626</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6375436782836914</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1123331910887684</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.372321844100952</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.7715476672023414</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3949662446975708</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.693719721348795</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-3.230232238769531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.552435299359332</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.428045749664307</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.547517477703341</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.704452753067017</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1524524713366651</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6290268301963806</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.690177235670935</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.005419492721558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4885969139047845</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.002308783587068319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.261431987254401</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6656510233879089</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.891445724835904</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.818512916564941</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.627927757970913</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.209126472473145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6737415668746425</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.1358642578125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.054096038215985</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.914090871810913</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.415780056337778</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.099342823028564</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.040636820379333</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8425951600074768</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.539278178333689</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.250433444976807</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.203248496810946</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.006680965423584</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.01643566879641689</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9264268279075623</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.095971683341198</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.376412630081177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7813453491563664</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.009001135826111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.436036121014477</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.303689002990723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.244693824844244</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.770082592964172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5698717044640356</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.049990892410278</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.848324235662751</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.715561151504517</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.111556484088999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.068375587463379</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7556623311984265</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6613050103187561</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.412021578644437</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.379960536956787</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6.072095027921835</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.243505954742432</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.512262356682726</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.322910666465759</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7376732484026847</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.041263937950134</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-11.18532380892931</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.766969203948975</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.993205797765723</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.695779085159302</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.13601680254018</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.420891284942627</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.6855958547806074</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6375436782836914</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1074153694327498</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.372321844100952</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.7666298455463227</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3949662446975708</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.688801899692776</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-3.230232238769531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2365,8 +3339,8 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2831,10 +3805,15 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col width="29" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="23.83203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="26" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="inlineStr">
@@ -3288,6 +4267,962 @@
       </c>
       <c r="C35" t="n">
         <v>-1.243046998977661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col width="14.33203125" customWidth="1" min="1" max="1"/>
+    <col width="21.33203125" customWidth="1" min="2" max="2"/>
+    <col width="30.1640625" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.540171454882834</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.488237380981445</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.535230862307769</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.740685939788818</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1383365921042419</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.246809959411621</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.703564445490989</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1320209056138992</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4932944811496229</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.004540920257568</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.251293428563343</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.620875597000122</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.879825538340336</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.764554977416992</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.636396449259126</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.4275822937488556</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6620394050698506</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.953945159912109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.039524740601212</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.00484561920166</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.40591095352308</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.999284267425537</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.02785531700784</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.863374471664429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.531583698295769</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.381294727325439</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.191682960520722</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.556325912475586</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.02670326269578815</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.879482746124268</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.08622456759336</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.559096813201904</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7617813774915785</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.781769037246704</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.424390886507719</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.289239883422852</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.257175890628916</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3971515595912933</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5808497510404571</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.2710374891757965</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.837430441487587</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.397716045379639</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.117634228868696</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.512863159179688</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7489697716024137</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.562484741210938</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.422339969209628</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.010499000549316</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6.0611688289768</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.719390392303467</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.5009700714225</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.344177007675171</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7262671085468124</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.986067771911621</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-11.19174311749598</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-6.31898021697998</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.981825275193806</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.491835117340088</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.126455107133733</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.612038135528564</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.6980357943649116</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.595741987228394</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1181042253360918</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.3628725111484528</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.7780559099565219</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.213074207305908</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.695816098521653</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.473943948745728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col width="23.83203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="26" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.546659940216689</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.507131338119507</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.541705318401944</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.67209529876709</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1436840326248747</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6253640651702881</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.69776806930623</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.105467796325684</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5005017311873332</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.8439670205116272</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.259091309584217</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6997199654579163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.8867105835108</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.942646741867065</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.6275697573413</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.342971563339233</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6688739449781225</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9800370335578918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.044591596331863</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.790775775909424</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.413874847211464</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.904946088790894</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.034024870963508</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8473997116088867</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.540887384356907</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.913516998291016</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.198601675865866</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.92725133895874</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.01898488069880688</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7555193901062012</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.094263617921784</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.642722368240356</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7759223794114765</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.005954146385193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.43126049951471</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.266222476959229</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.250821852173749</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.592438220977783</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5735690813159779</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.366077661514282</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.844763019398308</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.538526296615601</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.107334466802826</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.7682230472564697</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7588907442015889</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6024054884910583</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.414652883208434</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.46090030670166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6.068481442200456</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.318080425262451</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.508057137641826</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.285426497459412</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7332840285685616</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9214429259300232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-11.18165379402255</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-8.744119644165039</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.988857978110061</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.60378098487854</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.1346083955554</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.170015335083008</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.6916558018166166</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5745726823806763</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1106453842698851</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.235291957855225</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.7710512655192598</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2482214421033859</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.686093288930358</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-3.09630823135376</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Predictions.xlsx
+++ b/Datasets/Predictions.xlsx
@@ -17,6 +17,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-27-2024" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-28-2024" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-29-2024" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-01-2024" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-02-2024" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0009999999999999445"/>
@@ -1890,6 +1892,965 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.55735312101535</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.428045749664307</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.552435299359359</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.704452753067017</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1573702929926828</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6290268301963806</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.685259414014917</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.005419492721558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4935147355608027</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.002308783587068319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.266349808910419</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6656510233879089</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.896363546491922</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.818512916564941</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.623009936314896</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.209126472473145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6786593885306607</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.1358642578125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.059013859872003</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.914090871810913</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.420697877993796</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.099342823028564</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.045554642035351</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8425951600074768</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.544195999989706</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.250433444976807</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.208166318466964</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.006680965423584</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.01151784714039916</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9264268279075623</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.100889504997216</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.376412630081177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7862631708123846</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.009001135826111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.440953942670495</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.303689002990723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.239776003188227</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.770082592964172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5649538828080178</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.049990892410278</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.85324205731877</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.715561151504517</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.106638662432982</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.068375587463379</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7605801528544447</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6613050103187561</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.40710375698842</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.379960536956787</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6.077012849577852</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.243505954742432</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.517180178338744</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.322910666465759</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7425910700587028</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.041263937950134</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-11.18040598727329</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.766969203948975</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.998123619421742</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.695779085159302</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.140934624196198</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.420891284942627</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.6806780331245896</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6375436782836914</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.102497547776732</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.372321844100952</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.761712023890305</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3949662446975708</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.683884078036758</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-3.230232238769531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.596673397619933</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.145450592041016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.591454679856594</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.368276119232178</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1722176861934672</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.798820734024048</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.66078334537639</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1950432509183884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5466924103169304</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.431107759475708</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.333753722207729</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.038323640823364</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.944189153066569</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.414598941802979</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.533540308473303</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.214027464389801</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.020874871053748</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.995976448059082</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.725401769118212</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.694656133651733</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.067843330924676</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.926626205444336</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.491662395228951</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.351988315582275</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.078034547131181</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.249961137771606</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.643896095483688</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.89842414855957</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.256714075698859</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.394993782043457</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05418098821487671</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.618716716766357</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.17346596566497</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.074489116668701</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8284647555971447</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.218261241912842</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.488448563526754</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.681851387023926</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.203339314279646</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.047272682189941</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2462766401719474</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.998223304748535</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.910666249720252</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.489115238189697</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.985574943312053</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.7064288854599</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8735196770749796</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.102028369903564</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.342076151411259</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.36479663848877</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.134008843672303</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7.477080821990967</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.569338688860061</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.978230237960815</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7932451000428746</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.724176645278931</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.06385570976372</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.112802982330322</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.049116157526757</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.089783191680908</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.215961238881561</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.117432594299316</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.6436846864172514</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.104370832443237</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.04236529040875592</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1708746999502182</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.7113212780000966</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.56526517868042</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.575194711333626</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.825940728187561</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Datasets/Predictions.xlsx
+++ b/Datasets/Predictions.xlsx
@@ -19,6 +19,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-29-2024" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-01-2024" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-02-2024" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-04-2024" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0009999999999999445"/>
@@ -2851,6 +2852,492 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.979146416265712</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.00047492980957</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.626193239010402</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.239157676696777</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.190029740162176</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6000427603721619</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.63622878311821</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.5388095378875732</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5913453566599141</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2207345068454742</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.388368633923411</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.367549180984497</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.993008002753223</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.008151531219482</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.463473815260776</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.3346356451511383</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.032576526884927</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.993991374969482</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7655483817959134</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.957591772079468</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.08144131721248</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.907510280609131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.548770630322538</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.454885959625244</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.108193819404871</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.488911628723145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.721126503753778</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.177573680877686</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.298124908680473</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.999295234680176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1076019140876214</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.763167858123779</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.23170296888737</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.062516689300537</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8654316626610732</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.386166334152222</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.529121934664625</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.941399097442627</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.170409292505658</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.1794064790010452</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2872660663858095</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.989426374435425</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.958292832531872</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.080272674560547</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.893384594774512</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.541472673416138</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9600210342433173</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.613255023956299</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.289125256164448</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.212547779083252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.1813355793603</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.469841003417969</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.613277962450671</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.117225646972656</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8361308567132144</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.982498407363892</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-10.97482591198693</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.189321994781494</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.092238955504145</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.287618160247803</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.275913969659769</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.502898693084717</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.6103648633827659</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.252734899520874</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2322041677508757</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.000150442123413</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6686198867908484</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.965161204338074</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.491669539464996</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.131961822509766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Datasets/Predictions.xlsx
+++ b/Datasets/Predictions.xlsx
@@ -20,6 +20,17 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-01-2024" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-02-2024" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-04-2024" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-05-2024" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-06-2024" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-07-2024" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-08-2024" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-09-2024" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-10-2024" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-12-2024" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-13-2024" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-14-2024" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-15-2024" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-17-2024" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0009999999999999445"/>
@@ -3338,6 +3349,2436 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.969146496653513</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.531351804733276</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.611511213191647</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.138788938522339</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1892355616752317</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.50439989566803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.642555050168836</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.412717580795288</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5685287812595181</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.786445260047913</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.357378472026142</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.5154914855957031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.977259897367531</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.7558246254920959</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.507141680116646</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.337993621826172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.036795803659085</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.008955001831055</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.746429159941667</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04668284207582474</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.08410469407789</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.76731550693512</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.515734748175129</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.317070722579956</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7521046225963595</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.024993181228638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.671580794798976</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.86319637298584</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.277968420220883</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.259463310241699</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.07759139287356565</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06483082473278046</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.197740955842021</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2459390312433243</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7950050972070439</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.9996458888053894</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.509570518391308</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.74807345867157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.183607450818954</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.548603773117065</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2674553334611565</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9363940954208374</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.9330364499271</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.521352052688599</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.955204625230214</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.623277902603149</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.90286870351333</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1354536861181259</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.318750126973856</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.378408432006836</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.156325215117275</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.307855129241943</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.59104694077935</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4230785071849823</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.814764223880001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.06705021113157272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.03405277592826</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.021126747131348</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.070677835182334</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.612351417541504</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.240544237649548</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.080013751983643</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.623882845566146</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.4391484260559082</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.208839836269612</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.058249950408936</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6898352515773807</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.134091258049011</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.546379971727379</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.021909236907959</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.983604278795219</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.992451906204224</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.628730216568523</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.169891357421875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1982643580657104</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.1224412247538567</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.630263764688357</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.426040530204773</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6349254201170984</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.993328928947449</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.384215021366457</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.401924848556519</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.995107609579475</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.231889128684998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.472828593278241</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.592658638954163</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.042867969311486</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.775110483169556</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7662649514427633</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.966548442840576</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.091094434786993</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.514554738998413</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.543777738793537</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.110595703125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7655853572242357</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.565459132194519</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.709360276295587</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.340956687927246</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.298415928426451</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.593307495117188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1038502097708713</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.864137291908264</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.226330122089357</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.092968225479126</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8129307733126643</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2987942099571228</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.529661191852692</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.126774787902832</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.167263542171974</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.8467050194740295</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2876989360985975</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.632735729217529</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.956491565262696</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.87017822265625</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.910186496065049</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2382360398769379</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9451341075087187</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.635326862335205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.292718743210266</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.508879661560059</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.179635243798518</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.256654262542725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.612717882393709</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.293566465377808</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8359254015740119</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.970323443412781</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-10.99056393852409</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.434923648834229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.091953709758456</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.613893985748291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.269963590852807</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.39234733581543</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.6073503242686646</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.388761162757874</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2311791350239654</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.077426433563232</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.668763282569385</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9608137607574463</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.505554650806887</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.799804091453552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.953198071330712</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.477620601654053</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.587708914419802</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.372751235961914</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1887290598418874</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.23438572883606</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.652341205554587</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.441360950469971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5774507212076481</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3702347278594971</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.134369031107672</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.9948650598526</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.951669332025591</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9835835099220276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.579565496979966</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.651641845703125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.044698987857245</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7527588605880737</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7151838057163769</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4084320664405823</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.089397975714588</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.305188655853271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.461145265482443</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.444457054138184</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7389352601863699</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.500861883163452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.589297346036322</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.512432813644409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.244983130954474</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.384557723999023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.02807672071721523</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.5929808616638184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.141597959719851</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1182138919830322</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7691927754383103</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.218136548995972</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.477600191232234</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.779792308807373</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.204920675851627</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.154941320419312</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2350500225418397</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.550131618976593</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.891496480042179</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.002786874771118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.058077305311882</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.331001758575439</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8078257311162531</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7015976309776306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.367617900204649</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.060868263244629</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.115197922133203</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.579003810882568</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.554581781430874</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.069176085293293</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7797490103990601</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3691442310810089</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.13257561840732</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.561325073242188</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.03533638388122</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.28211784362793</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.182039901114514</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.000328540802002</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.6457325505698686</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.6948180198669434</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1704736367837603</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.022204637527466</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.7245967245315494</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.141892552375793</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.63732684704858</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.329229831695557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.958164625537075</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.477620601654053</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.592675468626166</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.372751235961914</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1936956140482504</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.23438572883606</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.647374651348224</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.441360950469971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5824172754140116</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3702347278594971</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.139335585314036</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.9948650598526</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.956635886231954</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9835835099220276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.574598942773603</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.651641845703125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.049665542063608</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7527588605880737</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7201503599227403</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4084320664405823</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.094364529920951</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.305188655853271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.466111819688807</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.444457054138184</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7439018143927334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.500861883163452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.594263900242685</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.512432813644409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.249949685160838</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.384557723999023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03304327492357828</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.5929808616638184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.146564513926214</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1182138919830322</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7741593296446738</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.218136548995972</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.482566745438598</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.779792308807373</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.199954121645264</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.154941320419312</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2400165767482028</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.550131618976593</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.896463034248542</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.002786874771118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.053110751105519</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.331001758575439</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8127922853226166</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7015976309776306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.362651345998286</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.060868263244629</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.120164476339566</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.579003810882568</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.559548335637237</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.069176085293293</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7847155646054236</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3691442310810089</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.12760906420095</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.561325073242188</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.040302938087584</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.28211784362793</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.187006455320878</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.000328540802002</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.6407659963635055</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.6948180198669434</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1754401909901233</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.022204637527466</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.7196301703251864</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.141892552375793</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.632360292842217</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.329229831695557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.963131179743439</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.477620601654053</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.59764202283253</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.372751235961914</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1986621682546144</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.23438572883606</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.64240809714186</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.441360950469971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5873838296203751</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3702347278594971</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.144302139520399</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.9948650598526</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.961602440438318</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9835835099220276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.569632388567239</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.651641845703125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.054632096269972</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7527588605880737</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7251169141291038</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4084320664405823</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.099331084127315</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.305188655853271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.47107837389517</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.444457054138184</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7488683685990969</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.500861883163452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.599230454449049</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.512432813644409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.254916239367201</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.384557723999023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03800982912994222</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.5929808616638184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.151531068132578</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1182138919830322</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7791258838510373</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.218136548995972</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.487533299644961</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.779792308807373</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.1949875674389</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.154941320419312</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2449831309545667</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.550131618976593</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.901429588454906</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.002786874771118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.048144196899155</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.331001758575439</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8177588395289801</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7015976309776306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.357684791791922</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.060868263244629</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.12513103054593</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.579003810882568</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.564514889843601</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.069176085293293</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7896821188117871</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3691442310810089</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.12264250999459</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.561325073242188</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.045269492293947</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.28211784362793</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.191973009527241</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.000328540802002</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.6357994421571416</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.6948180198669434</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1804067451964873</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.022204637527466</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.7146636161188225</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.141892552375793</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.627393738635853</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.329229831695557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3691,6 +6132,2922 @@
       </c>
       <c r="B34" t="n">
         <v>-1.627883450130628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.968097733949802</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.477620601654053</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.602608577038893</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.372751235961914</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2036287224609774</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.23438572883606</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.637441542935497</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.441360950469971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5923503838267385</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3702347278594971</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.149268693726763</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.9948650598526</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.966568994644681</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9835835099220276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.564665834360876</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.651641845703125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.059598650476335</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7527588605880737</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7300834683354673</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4084320664405823</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.104297638333678</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.305188655853271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.476044928101533</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.444457054138184</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7538349228054604</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.500861883163452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.604197008655412</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.512432813644409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.259882793573565</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.384557723999023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.04297638333630527</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.5929808616638184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.156497622338941</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1182138919830322</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7840924380574008</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.218136548995972</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.492499853851325</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.779792308807373</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.190021013232537</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.154941320419312</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2499496851609297</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.550131618976593</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.90639614266127</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.002786874771118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.043177642692792</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.331001758575439</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8227253937353436</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7015976309776306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.352718237585559</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.060868263244629</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.130097584752293</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.579003810882568</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.569481444049964</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.069176085293293</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7946486730181506</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3691442310810089</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.11767595578823</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.561325073242188</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.050236046500311</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.28211784362793</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.196939563733605</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.000328540802002</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.6308328879507785</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.6948180198669434</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1853732994028503</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.022204637527466</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.7096970619124594</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.141892552375793</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.62242718442949</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.329229831695557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.979173267485462</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.561822652816772</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.614005572188974</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.335267066955566</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.214072213006391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.352057933807373</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.626618233128306</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.534795522689819</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6042456444796467</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.794907808303833</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.161685345336441</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.7829659581184387</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.978039184131752</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.479191064834595</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.551278744537833</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.833902359008789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.042316600245803</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.001403331756592</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.741785110185472</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.65864896774292</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.114503741840013</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.345767259597778</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.488702052781226</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.614277362823486</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.764796708385092</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.4239141941070557</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.617987656443968</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.734679222106934</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.271655651534917</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.915650367736816</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05542579435734751</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.521251916885376</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.169218332832503</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.838132739067078</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8018392345810637</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.993108868598938</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.5042311690808</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.671674013137817</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.178725896686332</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.283500075340271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.261698804418252</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.948663473129272</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.918519146504102</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.575376033782959</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.028544270917476</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.05753568187355995</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.837038293008733</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.515342473983765</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.340295304349632</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.859179019927979</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.142203697594483</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.657758712768555</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.581396734234292</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.797247409820557</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8065046164428433</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.649364948272705</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.10322062429179</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.455007076263428</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.062105342945928</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.182373046875</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.209756924664283</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.169857025146484</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.6195158131034759</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.420666813850403</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1973663997830686</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.229249596595764</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6978515041706688</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4943910241127014</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.608281939752112</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.32937216758728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.006416599201069</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.749815225601196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.647449499578571</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.417689323425293</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.22912421969008</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5138271450996399</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.60423998417185</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.9401025176048279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6886069873481233</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.002731323242188</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.214797180627812</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.06234356388449669</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.012894939459371</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.269934177398682</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.479448360239145</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.745636522769928</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.049470001978604</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.99934458732605</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7811052943976673</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.606649398803711</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.124976847103596</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.384589672088623</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.54645231521161</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.818666934967041</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.789845983170216</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.06218554824590683</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.697602173157581</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.444117546081543</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.312349506173583</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.832610130310059</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1091695180446957</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.220715045928955</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.228195086714842</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.970186233520508</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8360375904903812</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.001650333404541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.544123715970961</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.00752067565918</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.147247081156457</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.224147766828537</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3019347689149647</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.587958574295044</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.965966880738445</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.982535362243652</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.932674654160801</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9570918679237366</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9267263928475806</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.985707759857178</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.287062304282238</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.025256633758545</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.321263193597352</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7.975666522979736</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.624837929725398</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.924197196960449</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8488010865788684</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.685763835906982</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.01078518360059</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.030220985412598</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.10465937628681</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.206315517425537</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.270597945553564</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.335412979125977</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5876134491922018</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.079861879348755</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.242308457406522</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.130470275878906</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6557553609718934</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.665794849395752</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.521827689041505</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.897945165634155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.010545448866774</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.650328874588013</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.651281047578793</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.697920560836792</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3752866079105139</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.9925268292427063</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.599877867046025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.790574193000793</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6920323755350535</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.999670147895813</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.217685706041669</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09781267493963242</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.016658794157413</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.85331916809082</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.477457338239878</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.712077021598816</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.054562109039167</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.923717498779297</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7846550918968389</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.930618524551392</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.129909783426582</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.660107851028442</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.549118440684475</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.21963357925415</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7940800318864425</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.4075143039226532</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.699219967220382</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.242738723754883</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.315833439919242</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.117477416992188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1120277461320089</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.519174337387085</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.230802405264919</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.295367002487183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8398329656990806</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9604477286338806</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.547646070239539</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.944563150405884</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.143321311397663</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.913238525390625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3054406572450938</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.028356075286865</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.969126984362692</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.577472686767578</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.931836247848018</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.02189152501523495</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9278611860512842</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.360101103782654</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.284179588389147</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.393191814422607</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.324577763405409</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7.895516395568848</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.628190135964058</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.303253173828125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8522081792787035</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.878715753555298</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.00978211790396</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.719271659851074</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.108054119532889</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.584819316864014</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.273115877581003</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.077032089233398</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5837079874240567</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.43241024017334</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.24558870139587</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.507135391235352</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6523386631412045</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8476000428199768</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.520537841584785</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.164920568466187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.989727592285901</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4844713807106018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.623364424773857</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.019973993301392</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3766429238574434</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.561015129089355</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.615125922435221</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.255117416381836</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6544177459494778</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3674298226833344</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.167252233619712</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.286380767822266</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.987125836888678</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.588621735572815</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.549320784563574</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.372679233551025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.056744255025547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9478417634963989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7500110229466328</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.58715283870697</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.128291359188249</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4304665327072144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.493374654279507</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.201503038406372</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7757740464313967</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.749196290969849</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.618444838990258</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.71044909954071</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.279616721220799</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.972867012023926</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.06087085482586474</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.688585877418518</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.173654467299071</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.151847004890442</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8110526336671082</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.677161455154419</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.512346730560982</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6384211778640747</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.168988171368568</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.824985980987549</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.269748155129542</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4016736745834351</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.925178071068985</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.202506065368652</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.031221064765126</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.631407260894775</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8355532930009053</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.889996528625488</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.334751776583727</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-7.068603038787842</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.284317088211701</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.994323253631592</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.674023064042744</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.996657371520996</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8141567025407763</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.557018876075745</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.10523531045036</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.995172500610352</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.069707770967218</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.416736483573914</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.213833629242704</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.585785865783691</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.6098597477341672</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.701848268508911</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.204508417735445</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.790294528007507</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6901607951240525</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.122268915176392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.609143455019484</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.773345947265625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.999596158377304</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4844713807106018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.633232990865261</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.019973993301392</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3667743577660394</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.561015129089355</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.605257356343817</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.255117416381836</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6642863120408813</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3674298226833344</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.177120799711116</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.286380767822266</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.996994402980082</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.588621735572815</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.53945221847217</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.372679233551025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.066612821116951</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9478417634963989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7598795890380363</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.58715283870697</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.138159925279652</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4304665327072144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.503243220370911</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.201503038406372</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7856426125228002</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.749196290969849</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.628313405081662</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.71044909954071</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.289485287312203</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.972867012023926</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.07073942091726781</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.688585877418518</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.183523033390474</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.151847004890442</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8209211997585117</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.677161455154419</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.522215296652386</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6384211778640747</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.159119605277165</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.824985980987549</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2796167212209459</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4016736745834351</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.935046637160389</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.202506065368652</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.021352498673722</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.631407260894775</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8454218590923088</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.889996528625488</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.324883210492323</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-7.068603038787842</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.294185654303105</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.994323253631592</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.683891630134147</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.996657371520996</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8240252686321798</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.557018876075745</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.09536674435896</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.995172500610352</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.079576337058622</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.416736483573914</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.223702195334107</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.585785865783691</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5999911816427632</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.701848268508911</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2143769838268481</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.790294528007507</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6802922290326494</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.122268915176392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.59927488892808</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.773345947265625</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Predictions.xlsx
+++ b/Datasets/Predictions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="20" activeTab="31" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02-19-2024" sheetId="1" state="visible" r:id="rId1"/>
@@ -31,6 +31,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-14-2024" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-15-2024" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-17-2024" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-18-2024" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-19-2024" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-20-2024" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-21-2024" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-22-2024" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-24-2024" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-25-2024" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-26-2024" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-27-2024" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03-28-2024" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-06-2024" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-07-2024" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-08-2024" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-09-2024" sheetId="39" state="visible" r:id="rId39"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0009999999999999445"/>
@@ -40,13 +54,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -96,12 +116,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -204,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -225,6 +260,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -966,7 +1004,7 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1443,7 +1481,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -1916,7 +1954,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -2389,7 +2427,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -2875,7 +2913,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -3361,7 +3399,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -3847,7 +3885,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -4333,7 +4371,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -4819,7 +4857,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -5305,7 +5343,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -6151,7 +6189,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -6637,7 +6675,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -7123,7 +7161,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -7609,7 +7647,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -8095,7 +8133,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -8581,7 +8619,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="inlineStr">
@@ -9048,6 +9086,1950 @@
       </c>
       <c r="C36" t="n">
         <v>-5.773345947265625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.004530441423006</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4844713807106018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.638167273910963</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.019973993301392</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3618400747203383</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.561015129089355</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.600323073298116</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.255117416381836</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6692205950865828</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3674298226833344</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.182055082756817</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.286380767822266</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.001928686025783</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.588621735572815</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.534517935426469</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.372679233551025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.071547104162653</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9478417634963989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7648138720837379</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.58715283870697</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.143094208325354</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4304665327072144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.508177503416613</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.201503038406372</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7905768955685017</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.749196290969849</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.633247688127364</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.71044909954071</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.294419570357904</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.972867012023926</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0756737039629698</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.688585877418518</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.188457316436176</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.151847004890442</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8258554828042133</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.677161455154419</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.527149579698087</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6384211778640747</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.154185322231463</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.824985980987549</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.284551004266647</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4016736745834351</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.93998092020609</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.202506065368652</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.016418215628021</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.631407260894775</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8503561421380104</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.889996528625488</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.319948927446622</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-7.068603038787842</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.299119937348807</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.994323253631592</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.688825913179849</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.996657371520996</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8289595516778814</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.557018876075745</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.09043246131326</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.995172500610352</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.084510620104323</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.416736483573914</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.228636478379809</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.585785865783691</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5950568985970621</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.701848268508911</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2193112668725501</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.790294528007507</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6753579459869474</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.122268915176392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.594340605882379</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.773345947265625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.021562420895374</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6648719310760498</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.658372579726031</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.135953664779663</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3535078914677507</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.108129501342773</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.585780934494666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.921880722045898</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6937611528898988</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2008405923843384</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.212325984449496</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.468505620956421</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.022856533838976</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.165487170219421</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.494667298529482</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.278078079223633</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.078297506284519</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8206830620765686</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7880265148636698</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.214321494102478</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.151543560550751</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7768933176994324</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.540822248495258</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.650703907012939</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8064860057195413</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.115803241729736</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.677082070094542</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.906276345252991</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.318335226973786</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.907812118530273</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1062679920202152</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.347173571586609</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.221729752439785</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.9239251017570496</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.82335542905308</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.005479787476360798</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.550655144909617</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9395826458930969</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.134985716765024</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.016244411468506</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3082323229371422</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.0439477376639843</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.967353061515257</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.545673131942749</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.964264836602149</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.826356887817383</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8993459589020634</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.504854321479797</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.289616016328434</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.582935333251953</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.32484334382846</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.947571277618408</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.710234153780863</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.992099523544312</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8536953911023333</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.199918389320374</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.04003661687745</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.326382637023926</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.109378274622995</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.69570004940033</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.262863004589255</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.796135902404785</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5756405305311931</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.655373692512512</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2454010588700095</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.401349544525146</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.3511482185716046</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.040358662605286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.547005800857054</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.157469749450684</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.054107091117998</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.966761231422424</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.698059772663537</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.416419267654419</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3405447219805655</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.869414806365967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.558840397479202</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.074222803115845</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7432061307058238</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7680558562278748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.274668819899163</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.14151406288147</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.064170024256415</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2576253116130829</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.410762395738017</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.277437210083008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.087700402910686</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.908030033111572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.896741982335897</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.994553089141846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.164770453953468</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.199085474014282</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.608508130475582</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.430381298065186</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8365033217506701</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.08356785774231</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.769953586017452</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.46638011932373</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.366373677239722</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.395950317382812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1693387054769344</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1272390186786652</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.290828441110958</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.700523853302002</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8629547140188123</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.001286847400479019</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.597770561470767</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.609589099884033</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.097562154103203</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.566046714782715</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3557433253718125</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.377799272537231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.023171367292321</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.299328327178955</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.852668922669398</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.062930226325989</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.003821327112872</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.08128378540277481</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.227133610068069</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.425872802734375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.376950677364098</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.836791515350342</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.752628912252495</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.7157653570175171</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9035799087776528</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3894877433776855</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-10.93239656167925</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.087785720825195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.159559481703369</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.186229228973389</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.334109159430538</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.616455554962158</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5377290786253228</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.409139096736908</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2983330529036827</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.2253319472074509</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.306157244664103</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.0520886667072773</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.446255532954739</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.018837451934814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.059422267051984</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.966761231422424</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.703374948597524</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.416419267654419</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3352295460465795</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.869414806365967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.553525221545216</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.074222803115845</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7485213066398102</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7680558562278748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.279983995833149</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.14151406288147</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.069485200190402</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2576253116130829</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.405447219804031</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.277437210083008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.093015578844672</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.908030033111572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.902057158269883</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.994553089141846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.170085629887454</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.199085474014282</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.613823306409568</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.430381298065186</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8418184976846566</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.08356785774231</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.775268761951438</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.46638011932373</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.371688853173708</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.395950317382812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1746538814109204</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1272390186786652</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.296143617044944</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.700523853302002</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8682698899527987</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.001286847400479019</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.603085737404754</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.609589099884033</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.092246978169217</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.566046714782715</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.361058501305799</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.377799272537231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.028486543226307</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.299328327178955</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.847353746735412</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.062930226325989</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.009136503046859</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.08128378540277481</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.221818434134083</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.425872802734375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.382265853298084</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.836791515350342</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.757944088186481</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.7157653570175171</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9088950847116393</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3894877433776855</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-10.92708138574527</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.087785720825195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.164874657637355</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.186229228973389</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.339424335364525</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.616455554962158</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5324139026913368</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.409139096736908</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3036482288376687</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.2253319472074509</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.300842068730117</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.0520886667072773</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.440940357020753</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.018837451934814</v>
       </c>
     </row>
   </sheetData>
@@ -9408,6 +11390,4957 @@
       </c>
       <c r="B34" t="n">
         <v>-1.608892786938413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.064737442986127</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.966761231422424</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.708690124532472</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.416419267654419</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3299143701128529</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.869414806365967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.548210045611091</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.074222803115845</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.753836482573973</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7680558562278748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.285299171767355</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.14151406288147</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.07480037612452</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2576253116130829</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.400132043869213</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.277437210083008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.098330754778398</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.908030033111572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.907372334204598</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.994553089141846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.175400805821201</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.199085474014282</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.619138482343781</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.430381298065186</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8471336736191852</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.08356785774231</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.780583937885977</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.46638011932373</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.377004029107329</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.395950317382812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.179969057345299</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1272390186786652</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.301458792979286</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.700523853302002</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8735850658869686</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.001286847400479019</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.608400913338976</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.609589099884033</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.086931802235037</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.566046714782715</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3663736772396748</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.377799272537231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.033801719159934</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.299328327178955</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.842038570800813</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.062930226325989</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.014451678980356</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.08128378540277481</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.216503258199743</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.425872802734375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.387581029232202</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.836791515350342</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.763259264119831</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.7157653570175171</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9142102606458882</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3894877433776855</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-10.9217662098107</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.087785720825195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.170189833571579</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.186229228973389</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.344739511298926</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.616455554962158</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.527098726757913</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.409139096736908</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3089634047718439</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.2253319472074509</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2955268927960795</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.0520886667072773</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.435625181086136</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.018837451934814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.075367794854101</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.966761231422424</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.719320476400446</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.416419267654419</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3192840182448782</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.869414806365967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.537579693743116</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.074222803115845</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7644668344419472</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7680558562278748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.295929523635329</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.14151406288147</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.085430727992494</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2576253116130829</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.389501692001239</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.277437210083008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.108961106646372</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.908030033111572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.918002686072572</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.994553089141846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.186031157689174</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.199085474014282</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.629768834211756</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.430381298065186</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8577640254871595</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.08356785774231</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.791214289753951</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.46638011932373</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.387634380975304</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.395950317382812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1905994092132737</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1272390186786652</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.312089144847261</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.700523853302002</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8842154177549428</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.001286847400479019</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.61903126520695</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.609589099884033</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.076301450367063</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.566046714782715</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3770040291076491</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.377799272537231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.044432071027908</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.299328327178955</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.831408218932839</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.062930226325989</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.02508203084833</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.08128378540277481</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.205872906331768</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.425872802734375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.398211381100177</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.836791515350342</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.773889615987805</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.7157653570175171</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9248406125138624</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3894877433776855</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-10.91113585794272</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.087785720825195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.180820185439553</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.186229228973389</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.355369863166899</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.616455554962158</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5164683748899384</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.409139096736908</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3195937566398186</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.2253319472074509</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2848965409281048</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.0520886667072773</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.424994829218162</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.018837451934814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.044073099896575</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.234167098999023</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.678950107871505</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.0275719165802</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3256974050630017</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.172718286514282</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.561753475597892</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.181054353713989</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7116976995792221</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.593769311904907</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.226771677079964</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.2012619972229</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.042993898416178</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8681854009628296</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.486057461165248</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.372227430343628</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.107071594034428</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.90398645401001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.886121562967829</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.988884925842285</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.179282669078094</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.951464414596558</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.4231210307133</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.00440788269043</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8296807227078506</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.524931311607361</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.683265059630362</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.026191234588623</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.336652455682564</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.336779594421387</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.120516681707227</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.032760143280029</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.234346947785644</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.524033069610596</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8439567498330325</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.002983663929626346</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.569222196182069</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.244740009307861</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.113795528496712</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.81272292137146</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3266923073972627</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.378555297851562</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.983564642840384</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.990924119949341</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.963149676364748</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.6060407757759094</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9023883218443549</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8499840497970581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.275208099068724</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.602842807769775</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.342059313851272</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.81995964050293</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.73007886906942</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.236656904220581</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8715129746615329</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.143055200576782</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.03785078847842</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-7.689828872680664</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.127115558070792</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.877758741378784</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.274898980075548</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.281036376953125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5545823913270747</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4614646732807159</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2623938314024254</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5812187790870667</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.3320061788397588</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.032307624816895</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.542955225410064</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-3.088982343673706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.038424267413778</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.629650473594666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.039069334596837</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2725286781787872</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.67069024391366</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.714020133018494</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3241879943138235</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.042385578155518</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.565353652609295</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.366429567337036</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6998707649092175</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4777191579341888</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.210229781926729</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.057613849639893</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.034139522665452</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.3394902646541595</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.5104816184929</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.597408294677734</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.10988250355407</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.729928612709045</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.88030401769009</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.325747489929199</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.180695672510677</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.792146921157837</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.405473950650979</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.208088159561157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8249557936778595</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.729857921600342</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.655563053544014</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.665163516998291</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.325339693359793</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.762911796569824</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1037087023626979</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.413137286901474</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.215335372639569</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2996061444282532</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7865106967424396</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.9926311373710632</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.558246859473582</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.957011580467224</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.121227896330957</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.988939046859741</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3155723597104867</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9405755996704102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.969407864685879</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.628908634185791</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.997696601908558</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.891368627548218</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8704443938269373</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.5306594371795654</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.291801015938379</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.372146129608154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.329259124368059</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.547611236572266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.720829223312988</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.928210496902466</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8595253611320031</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.01626685261726379</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.07095160427771</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-8.226260185241699</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.11501948630971</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.715074062347412</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.255102373925686</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.407928466796875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5621931127054154</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.6818315982818604</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2492921777720074</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.5435697436332703</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3422049010579915</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.228233203291893</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.573537400070752</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-4.135435104370117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.043795510301759</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.943770408630371</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.043992445777054</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.057883262634277</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.676180185094405</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.0868239402771</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3191421673605186</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0787796750664711</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.560075542227833</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.314382195472717</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7055228662188391</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.222869396209717</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.216096226787138</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.0573505163192749</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.464657584542437</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.992260456085205</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.504256843574342</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.457497000694275</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.114869163973901</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.969379901885986</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.885682930314073</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.88803768157959</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.185745882170488</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.612192153930664</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.411390637556525</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.746119260787964</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8302850356316043</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1577397733926773</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.661936840472837</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.526751518249512</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.330968420236353</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.570503234863281</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1095872434922143</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.118553638458252</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.22131408991055</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.672411441802979</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7919833045175642</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9773052930831909</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.563860246878511</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.643065452575684</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.115775573378554</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.6153052449226379</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3211923211749044</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.496549606323242</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.975165881395004</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.547061920166016</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.991011642840102</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6742618680000305</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8770110198280463</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.658912181854248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.407318223028809</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.001826286315918</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.33495547014024</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.926729679107666</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.726364160277217</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.07847627997398376</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8651847669520079</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.152144908905029</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.06433238580212</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-6.374119281768799</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.120683822674209</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.966761112213135</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.261116778947013</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.587821483612061</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5567326817464258</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.560305595397949</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2550022281968483</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.608055830001831</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3366268187861534</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.95169460773468</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.56703267979447</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.768579602241516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.046210424500707</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.438005447387695</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.048660171447812</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7242856025695801</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.677998388838221</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.90086841583252</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3150913484985427</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.585678815841675</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.557192439825688</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.759677886962891</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7065258716795979</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8296345472335815</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.216021701688338</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.369083285331726</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.466785290852175</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.978786468505859</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.506132736555156</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.774983406066895</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.75263296955777</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03056848794221878</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.888059287837335</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.288689613342285</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.18977466864623</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.245571136474609</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.411063539712424</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.714984893798828</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.832911093529888</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.372084736824036</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.659311846367022</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.75157356262207</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.332088931756002</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.157297134399414</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1094519090079498</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4810166358947754</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.220675158031224</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9037718772888184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7938886453557101</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.6894941926002502</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.565057871749278</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.797744989395142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.113768258321103</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.084563493728638</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3223568974664577</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.817893624305725</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.975636437526602</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.202285528182983</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.995200936354157</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.110529780387878</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8734166007370838</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1249356418848038</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.407055400822586</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.004984378814697</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.335736053418155</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.575213432312012</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.727956164857858</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.056701183319092</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8661510517693989</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6696286201477051</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.06819119352571</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.517311573028564</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.121625321057229</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.677103996276855</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.260298440495863</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.627834320068359</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5547661266032549</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4453704357147217</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2557139165534013</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.262774258852005</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3352517108058368</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.833423912525177</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.570315891432903</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.55095362663269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.039767158892167</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.18631386756897</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.084582070259684</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.222941160202026</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.660333706410994</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.299430131912231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2907706683057212</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.7681079506874084</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.257383008992874</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1000025495886803</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.67353100750615</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.592902541160583</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.11872658242909</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.990268886089325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.454940947697951</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.538498878479004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.593266620949277</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.269390821456909</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.785378344223825</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6053622364997864</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.880890946065096</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.485369682312012</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.213681019602823</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.099731206893921</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.353055466083266</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.687316656112671</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8304384831035021</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.108850121498108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.558090767935852</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.376246929168701</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.301303823509837</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.296700000762939</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05505003428806887</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8438647389411926</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.767767148055288</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.216976881027222</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7055810163676703</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.3364432752132416</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.5357229158306</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.739656686782837</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.293397916025346</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.111836552619934</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2924004476931588</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.60949182510376</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.932628616807351</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.363131046295166</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.125839390568509</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7993107438087463</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.753965035904959</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7698491215705872</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.453969754342107</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.521201848983765</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.413471770459518</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.010082244873047</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.706037702270446</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.30677604675293</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8324656388686309</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.203028440475464</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.19261470919449</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.702202796936035</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.087473787765575</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.46339750289917</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.19305235944806</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.247443675994873</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5696409921722045</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8870947957038879</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2172406991433595</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.097511887550354</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3612490145425697</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.24278450012207</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.683915055801029</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.228218078613281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.044218846800556</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.18631386756897</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.089033758168072</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.222941160202026</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.664785394319383</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.299430131912231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2863189803973327</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.7681079506874084</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.252931321084485</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1000025495886803</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6779826954145385</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.592902541160583</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.123178270337479</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.990268886089325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.459392635606339</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.538498878479004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.588814933040888</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.269390821456909</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.789830032132213</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6053622364997864</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.885342633973485</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.485369682312012</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.218132707511211</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.099731206893921</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.357507153991654</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.687316656112671</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8348901710118906</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.108850121498108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.56254245584424</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.376246929168701</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.305755511418226</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.296700000762939</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05950172219645733</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8438647389411926</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.772218835963677</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.216976881027222</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7100327042760588</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.3364432752132416</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.540174603738988</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.739656686782837</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.288946228116957</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.111836552619934</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2968521356015472</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.60949182510376</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.937080304715739</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.363131046295166</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.121387702660121</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7993107438087463</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7584167238133475</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7698491215705872</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.449518066433718</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.521201848983765</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.417923458367907</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.010082244873047</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.710489390178835</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.30677604675293</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8369173267770194</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.203028440475464</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.1881630212861</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.702202796936035</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.091925475673963</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.46339750289917</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.197504047356449</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.247443675994873</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5651893042638161</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8870947957038879</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.221692387051748</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.097511887550354</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3567973266341813</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.24278450012207</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.679463367892641</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.228218078613281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.032447391000214</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.125674247741699</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.09072125931884</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3954354822635651</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.649449015121298</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.213865756988525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2883170615900932</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.572454452514648</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.255916611833807</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.5740916132926941</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6577760824053325</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7050306797027588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.097699789543776</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9454628229141235</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.445905315577112</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.202808380126953</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.626220930320025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.167618751525879</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.790508385736426</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2879065871238708</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.873340829276759</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.010489940643311</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.216002998377196</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.003225564956665</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.329354113442792</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.282110691070557</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2805087339624803</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.99249792098999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.520661108576623</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.306376218795776</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.286250914094189</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.760319232940674</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.03249433224373899</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.196580782532692</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.746313830015569</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5439981818199158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6956927716827144</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.167354226112366</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.521130704207162</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.989358186721802</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.299737055758111</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.500531196594238</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2776107941585275</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.548924088478088</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.913692683136184</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.544058322906494</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.172614633727674</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.398604393005371</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7107437471483857</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.07812830060720444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.474146751455505</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.548919916152954</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.398059078004863</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.970463752746582</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.693801630788005</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.366567611694336</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8164913338664554</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3413366973400116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.23741553324085</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.988183498382568</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.071351401329912</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.041489124298096</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.166416191237738</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.253854751586914</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5796393886602109</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.06178022921085358</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1997453601580608</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.1377157121896744</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3747808899758995</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3081373870372772</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.72527709989293</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.998720169067383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.038707874621096</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.988990306854248</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.095384895307282</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.572444200515747</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.656132461643925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.472395896911621</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2832161470340182</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.5532514452934265</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.250698569088655</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.425796777009964</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6650373613242699</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.812872886657715</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.105586553010284</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.434083819389343</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.452369379144651</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.965030670166016</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.616919018076361</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.981347918510437</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.795291752759661</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.267144441604614</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.879628642807825</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.153112411499023</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.221119530025396</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.248423337936401</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.337558201976402</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.953907489776611</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2863748860160671</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.283658981323242</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.530494001940694</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.54933500289917</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.293428901856414</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.218721389770508</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.04056249423802871</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.105743050575256</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.754251198864613</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.717401385307312</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7102259181093693</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9934819936752319</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.52825403215068</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.832543611526489</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.293592919471377</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3733857572078705</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2847575477370796</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.700820446014404</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.921331375105906</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.013941287994385</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.161672926847938</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2334938943386078</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7212637925524543</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9639416933059692</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.466360812619941</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.653959989547729</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.405279752485168</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.402429580688477</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.700645412786342</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.019073724746704</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8237786412722947</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.592904448509216</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.22670808273768</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.047538757324219</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.078656277963332</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.671206474304199</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.174968483076857</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.73345947265625</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5730610972221468</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.183765649795532</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2072131317349157</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.231149315834045</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.367783366384395</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.649464964866638</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.714977645910189</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-2.120548248291016</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Predictions.xlsx
+++ b/Datasets/Predictions.xlsx
@@ -45,6 +45,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-07-2024" sheetId="37" state="visible" r:id="rId37"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-08-2024" sheetId="38" state="visible" r:id="rId38"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-09-2024" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-11-2024" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-12-2024" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-14-2024" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0009999999999999445"/>
@@ -16708,6 +16711,1503 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.01310983210497</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.818302869796753</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.097541671051663</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9133461117744446</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.623182898398906</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.868304967880249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.288659712716882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.208311796188354</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.258177940512924</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.154130756855011</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.622044489757335</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.192149758338928</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.051722130787175</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.074918627738953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.42323291236444</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.088613986968994</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.695380149657371</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.422943353652954</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.795367482639761</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2919324040412903</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.853555578953521</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.110532283782959</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.215404523576925</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.724527597427368</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.278178350867213</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.228254795074463</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2676307228266257</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.599893808364868</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.442803884335579</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.016448497772217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.251883714371464</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.46767520904541</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.01645481687616446</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6255415081977844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.699507204163951</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.287689566612244</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6803109234201639</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9914634227752686</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.487658887341273</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.395780563354492</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.317168728284151</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.8044599294662476</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2437552417844273</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.22638201713562</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.871778685041552</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.998229265213013</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.26863533879683</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.084766030311584</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6216302812662571</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3364159464836121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.518472801330066</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.154293298721313</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.362992626908322</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.090641021728516</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.724144411647007</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.99796199798584</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7803333684283569</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9060943722724915</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.32959888320554</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-8.169039726257324</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.034905634259615</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.47327184677124</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.10953650823501</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.80280065536499</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.604182959313639</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7943722605705261</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1606312100473994</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.81117182970047</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.4061919050249516</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9622617363929749</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.810777056385822</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.208897113800049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.017174068398871</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.818302869796753</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.101605907345564</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9133461117744446</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.627247134692807</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.868304967880249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2845954764229806</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.208311796188354</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.254113704219023</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.154130756855011</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6261087260512359</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.192149758338928</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.055786367081076</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.074918627738953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.427297148658341</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.088613986968994</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.69131591336347</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.422943353652954</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.799431718933662</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2919324040412903</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.857619815247422</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.110532283782959</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.219468759870827</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.724527597427368</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.282242587161114</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.228254795074463</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2716949591205271</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.599893808364868</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.44686812062948</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.016448497772217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.255947950665365</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.46767520904541</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.01239058058226306</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6255415081977844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.703571440457852</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.287689566612244</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6843751597140648</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9914634227752686</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.491723123635174</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.395780563354492</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.313104491990249</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.8044599294662476</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2478194780783287</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.22638201713562</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.875842921335453</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.998229265213013</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.264571102502929</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.084766030311584</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.625694517560158</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3364159464836121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.514408565036165</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.154293298721313</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.367056863202222</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.090641021728516</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.728208647940908</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.99796199798584</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7843976047222578</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9060943722724915</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.32553464691164</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-8.169039726257324</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.038969870553516</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.47327184677124</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.11360074452891</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.80280065536499</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.6001187230197376</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7943722605705261</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1646954463413008</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.81117182970047</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.4021276687310502</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9622617363929749</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.806712820091921</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.208897113800049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.03078198672831</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.179109811782837</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.110879022372717</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5650177001953125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.642003228305663</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.314392566680908</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2741353247967409</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.680352687835693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.243335596359601</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1483853906393051</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6424334037455357</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.151769757270813</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.073808985408894</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6787270307540894</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.441457705201734</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.919795036315918</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.669451731528553</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.875464677810669</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.809029855885826</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1045597940683365</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.871301923363468</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.891177654266357</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.229971305661961</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.300083160400391</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.301126616258478</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.561721086502075</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2842324248003596</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.829966068267822</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.470173704051695</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.48263144493103</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.272046526150138</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.942870140075684</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.006124462270075348</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3486727774143219</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.72173143218226</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8213879466056824</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6986573083109042</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8958058953285217</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.507673319546248</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.008621454238892</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.299812410185721</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.27088463306427</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.371346587604954</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.007685661315918</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.893192124668206</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.420784473419189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.238255533412802</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.373463034629822</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6508654442146216</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1043970286846161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.496659645296796</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.455780506134033</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.383271316069293</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.798167705535889</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7422793692307494</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.013906955718994</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8007929393578341</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5623325705528259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.29985499028649</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-8.404099464416504</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.055412898623313</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.61281418800354</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.133430006475649</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.465739250183105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5856480834465385</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1860129237174988</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1815806690974995</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3445440232753754</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3865189813674128</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5874801874160767</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.782140711008176</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.604949235916138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Datasets/Predictions.xlsx
+++ b/Datasets/Predictions.xlsx
@@ -48,6 +48,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-11-2024" sheetId="40" state="visible" r:id="rId40"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-12-2024" sheetId="41" state="visible" r:id="rId41"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-14-2024" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-16-2024" sheetId="43" state="visible" r:id="rId43"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0009999999999999445"/>
@@ -18208,6 +18209,505 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.038995247644801</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.179109811782837</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.119092283289207</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5650177001953125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.650216489222153</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.314392566680908</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2659220638802502</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.680352687835693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.23512233544311</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1483853906393051</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6506466646620259</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.151769757270813</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.082022246325384</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6787270307540894</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.449670966118224</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.919795036315918</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.661238470612062</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.875464677810669</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.817243116802317</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1045597940683365</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.879515184279958</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.891177654266357</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.23818456657845</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.300083160400391</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.309339877174969</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.561721086502075</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2924456857168503</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.829966068267822</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.478386964968185</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.48263144493103</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.280259787066628</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.942870140075684</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01433772318656601</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3486727774143219</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.729944693098751</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8213879466056824</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7068705692273944</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8958058953285217</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.515886580462738</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.008621454238892</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.29159914926923</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.27088463306427</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3795598485214446</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.007685661315918</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.901405385584696</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.420784473419189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.230042272496311</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.373463034629822</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6590787051311118</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1043970286846161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.488446384380305</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.455780506134033</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.391484576985784</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.798167705535889</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7504926301472397</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.013906955718994</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8090062002743243</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5623325705528259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.29164172937</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-8.404099464416504</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.063626159539804</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.61281418800354</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.141643267392139</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.465739250183105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5774348225300479</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1860129237174988</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1897939300139901</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3445440232753754</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3783057204509221</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5874801874160767</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.773927450091685</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.604949235916138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Datasets/Predictions.xlsx
+++ b/Datasets/Predictions.xlsx
@@ -49,6 +49,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-12-2024" sheetId="41" state="visible" r:id="rId41"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-14-2024" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-16-2024" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-19-2024" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0009999999999999445"/>
@@ -18708,6 +18709,505 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.066079621080738</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.704569816589355</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.134931455303956</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.528169393539429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.680279420491907</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.243119239807129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1742864631009029</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.597367286682129</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.215378961467958</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.560443639755249</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6847787641720404</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.776388168334961</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.153599484191097</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.993474960327148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.478188975082898</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.465869903564453</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.612735975154086</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.9019241333007812</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.833925449804167</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.100932836532593</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.906792018375825</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.316542148590088</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.257213086673271</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.960844039916992</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.350111360300438</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.014279842376709</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3167531267725838</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.5865665674209595</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.530628696106626</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.129433155059814</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.313805339803809</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.463688373565674</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05415199456373987</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.304879665374756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.768837902745874</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.639456748962402</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7357040082220405</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.495538473129272</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.549047211879342</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.204580783843994</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.265334108357381</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5045328736305237</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4100260306977956</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.691283464431763</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.938195275161762</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.982875823974609</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.169992137437312</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8343716263771057</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7161594471495181</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.165440320968628</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.450619563900445</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.9083032608032227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.425330734943787</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.227190017700195</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7787775915099302</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.768216848373413</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8433215956510378</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.540591478347778</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.23324125711111</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-6.256112575531006</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.098065279626531</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.906415939331055</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.184866841889674</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.11133337020874</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5481124065618124</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.168632030487061</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2253801767330499</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.199577569961548</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3093196131618416</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.71820604801178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.71840014054297</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.628667950630188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Datasets/Predictions.xlsx
+++ b/Datasets/Predictions.xlsx
@@ -50,6 +50,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-14-2024" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-16-2024" sheetId="43" state="visible" r:id="rId43"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-19-2024" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-21-2024" sheetId="45" state="visible" r:id="rId45"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0009999999999999445"/>
@@ -19208,6 +19209,505 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Linear Predicted Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>XGBoost Predicted Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CBS News</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.072917012648367</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.549972295761108</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNBC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.142966447193374</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8700668811798096</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>pollster_CNN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.686799599260403</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.971726894378662</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Daily Kos/Civiqs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.182212138579338</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9383037686347961</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Data for Progress (D)**</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.207759762355517</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3364807069301605</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Economist/YouGov</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6908655814551774</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7516812086105347</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Emerson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.159319310666717</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.989696025848389</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>pollster_FOX News</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.484873686204431</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.331109046936035</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Federalist/Susquehanna</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.608179587621299</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.487954378128052</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Forbes/HarrisX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.841870646069874</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3763706684112549</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Grinnell/Selzer</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.913608913116613</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.060928344726562</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>pollster_HarrisX**</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.264908416857561</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.607294082641602</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Harvard-Harris</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.355491091275961</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.15910530090332</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>pollster_I&amp;I/TIPP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3238862582728297</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.186527252197266</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Insider Advantage</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.534786859571602</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.231391429901123</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>pollster_InsiderAdvantage</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.319954623606749</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.111198425292969</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05963366743036502</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.717138946056366</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Marquette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.774417667570467</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8810979127883911</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Morning Consult</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7243218602052033</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01597485318779945</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NBC News</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.649235866076296</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.948659896850586</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NPR/PBS/Marist</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.258409458868962</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.311262249946594</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>pollster_NY Times/Siena</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4165032637335209</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.131097793579102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>pollster_New York Post</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.943999041024175</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.40349555015564</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>pollster_PPP (D)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.166665559525594</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.257511377334595</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Politico/Morning Consult</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7198022618213797</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2121571153402328</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Quinnipiac</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.444926229922307</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.618772268295288</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Rasmussen Reports</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.431448004655588</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.59668493270874</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Reuters/Ipsos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7854871219188557</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.087626457214355</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>pollster_SurveyUSA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8493888921466355</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8449379205703735</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Susquehanna</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.22973899211079</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.595902919769287</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>pollster_The Messenger/HarrisX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.104119399590374</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.241454601287842</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Trafalgar Group (R)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.189985428106216</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.265925884246826</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>pollster_USA Today/Suffolk</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5415133638111804</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6435413956642151</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2313121291008491</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6309971809387207</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.302828325158921</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1194566562771797</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>pollster_Yahoo News**</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.714591887196505</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.566738605499268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
